--- a/workspace/data/6月/研发部-薪酬表.xlsx
+++ b/workspace/data/6月/研发部-薪酬表.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_name=&quot;sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,11 +487,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>刘丹</t>
+          <t>宋帅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="E2" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G2" t="n">
-        <v>106</v>
+        <v>1932</v>
       </c>
       <c r="H2" t="n">
         <v>500</v>
@@ -518,16 +518,16 @@
         <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杨秀珍</t>
+          <t>何玲</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17400</v>
+        <v>9600</v>
       </c>
       <c r="E3" t="n">
-        <v>5800</v>
+        <v>3200</v>
       </c>
       <c r="F3" t="n">
-        <v>5800</v>
+        <v>3200</v>
       </c>
       <c r="G3" t="n">
-        <v>275</v>
+        <v>1326</v>
       </c>
       <c r="H3" t="n">
         <v>500</v>
@@ -554,16 +554,16 @@
         <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>李春梅</t>
+          <t>任华</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18600</v>
+        <v>12600</v>
       </c>
       <c r="E4" t="n">
-        <v>6200</v>
+        <v>4200</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="G4" t="n">
-        <v>1358</v>
+        <v>413</v>
       </c>
       <c r="H4" t="n">
         <v>500</v>
@@ -590,16 +590,16 @@
         <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>黄丽丽</t>
+          <t>蒋军</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10200</v>
+        <v>23400</v>
       </c>
       <c r="E5" t="n">
-        <v>3400</v>
+        <v>7800</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
         <v>500</v>
@@ -626,16 +626,16 @@
         <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>850</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>张桂珍</t>
+          <t>尹伟</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4200</v>
+        <v>10800</v>
       </c>
       <c r="E6" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G6" t="n">
-        <v>1583</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
         <v>500</v>
@@ -662,16 +662,16 @@
         <v>200</v>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杨丽华</t>
+          <t>李倩</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>908</v>
+        <v>1480</v>
       </c>
       <c r="H7" t="n">
         <v>500</v>
@@ -698,16 +698,16 @@
         <v>200</v>
       </c>
       <c r="J7" t="n">
-        <v>2000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>李龙</t>
+          <t>熊彬</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,16 +716,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="E8" t="n">
-        <v>7200</v>
+        <v>2000</v>
       </c>
       <c r="F8" t="n">
-        <v>7200</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="n">
-        <v>853</v>
+        <v>1707</v>
       </c>
       <c r="H8" t="n">
         <v>500</v>
@@ -734,16 +734,16 @@
         <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黄岩</t>
+          <t>路桂兰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22800</v>
+        <v>15600</v>
       </c>
       <c r="E9" t="n">
-        <v>7600</v>
+        <v>5200</v>
       </c>
       <c r="F9" t="n">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1747</v>
+        <v>1920</v>
       </c>
       <c r="H9" t="n">
         <v>500</v>
@@ -770,16 +770,16 @@
         <v>200</v>
       </c>
       <c r="J9" t="n">
-        <v>3800</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1032</v>
+        <v>1058</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>凌佳</t>
+          <t>傅玉兰</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9600</v>
+        <v>7800</v>
       </c>
       <c r="E10" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1924</v>
+        <v>1083</v>
       </c>
       <c r="H10" t="n">
         <v>500</v>
@@ -806,16 +806,16 @@
         <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>刘璐</t>
+          <t>苏利</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20400</v>
+        <v>22800</v>
       </c>
       <c r="E11" t="n">
-        <v>6800</v>
+        <v>7600</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G11" t="n">
-        <v>1364</v>
+        <v>817</v>
       </c>
       <c r="H11" t="n">
         <v>500</v>
@@ -842,7 +842,871 @@
         <v>200</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>刘飞</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G12" t="n">
+        <v>482</v>
+      </c>
+      <c r="H12" t="n">
+        <v>500</v>
+      </c>
+      <c r="I12" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>虞浩</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>258</v>
+      </c>
+      <c r="H13" t="n">
+        <v>500</v>
+      </c>
+      <c r="I13" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>幸秀荣</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1332</v>
+      </c>
+      <c r="H14" t="n">
+        <v>500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>樊倩</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1116</v>
+      </c>
+      <c r="H15" t="n">
+        <v>500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>贺桂芝</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1869</v>
+      </c>
+      <c r="H16" t="n">
+        <v>500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>吴玉兰</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>16200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>393</v>
+      </c>
+      <c r="H17" t="n">
+        <v>500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>陈超</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G18" t="n">
+        <v>53</v>
+      </c>
+      <c r="H18" t="n">
+        <v>500</v>
+      </c>
+      <c r="I18" t="n">
+        <v>200</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>周婷婷</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1645</v>
+      </c>
+      <c r="H19" t="n">
+        <v>500</v>
+      </c>
+      <c r="I19" t="n">
+        <v>200</v>
+      </c>
+      <c r="J19" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>潘峰</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>蔡丽</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1523</v>
+      </c>
+      <c r="H21" t="n">
+        <v>500</v>
+      </c>
+      <c r="I21" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>郭辉</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>23400</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1322</v>
+      </c>
+      <c r="H22" t="n">
+        <v>500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卢桂珍</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>476</v>
+      </c>
+      <c r="H23" t="n">
+        <v>500</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>钟岩</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>21600</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1793</v>
+      </c>
+      <c r="H24" t="n">
+        <v>500</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>黄辉</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>202</v>
+      </c>
+      <c r="H25" t="n">
+        <v>500</v>
+      </c>
+      <c r="I25" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>刘秀华</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>13800</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1545</v>
+      </c>
+      <c r="H26" t="n">
+        <v>500</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>杨兵</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>103</v>
+      </c>
+      <c r="H27" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>侯辉</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>208</v>
+      </c>
+      <c r="H28" t="n">
+        <v>500</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>王红霞</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H29" t="n">
+        <v>500</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙婷婷</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G30" t="n">
+        <v>625</v>
+      </c>
+      <c r="H30" t="n">
+        <v>500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>潘丽华</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>17400</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>500</v>
+      </c>
+      <c r="I31" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>赵丽丽</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F32" t="n">
+        <v>900</v>
+      </c>
+      <c r="G32" t="n">
+        <v>712</v>
+      </c>
+      <c r="H32" t="n">
+        <v>500</v>
+      </c>
+      <c r="I32" t="n">
+        <v>200</v>
+      </c>
+      <c r="J32" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>梅阳</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>11400</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>688</v>
+      </c>
+      <c r="H33" t="n">
+        <v>500</v>
+      </c>
+      <c r="I33" t="n">
+        <v>200</v>
+      </c>
+      <c r="J33" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>汤玉华</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>317</v>
+      </c>
+      <c r="H34" t="n">
+        <v>500</v>
+      </c>
+      <c r="I34" t="n">
+        <v>200</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>吴淑英</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>23400</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>584</v>
+      </c>
+      <c r="H35" t="n">
+        <v>500</v>
+      </c>
+      <c r="I35" t="n">
+        <v>200</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3900</v>
       </c>
     </row>
   </sheetData>
